--- a/utils/templates/observations/transform/input/Moose_Aerial_Transect_Distance_Sampling_Survey_2.0_Test_Data.xlsx
+++ b/utils/templates/observations/transform/input/Moose_Aerial_Transect_Distance_Sampling_Survey_2.0_Test_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/Desktop/SIMS-BIO-8/SIMS-BIO-53/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anissa/DevelopmentProjects/biohubbc-utils/utils/templates/observations/transform/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4335CF89-D01E-D64F-98FF-8EEAD0FF7402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A78234-1426-BE4D-ADC3-429B325D6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="600" windowWidth="25380" windowHeight="15800" tabRatio="705" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
+    <workbookView xWindow="-21400" yWindow="-21080" windowWidth="33800" windowHeight="18460" tabRatio="705" activeTab="1" xr2:uid="{EA928297-87AF-4A2F-92BD-649BD8B345BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Effort &amp; Site Conditions" sheetId="2" r:id="rId1"/>
@@ -457,14 +457,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The name of the Study Area in which a Survey is conducted or in which a site description is recorded.
-INSTRUCTIONS: Spatial polygons should be submited for all Study Areas.
-The Study Area Name should indicate the geographic area for which the Survey is being conducted. E.g. wildlife management unit, name of mountain, river valley, watershed.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The name of the Study Area in which a Survey is conducted or in which a site description is recorded.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">INSTRUCTIONS: Spatial polygons should be submited for all Study Areas.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The Study Area Name should indicate the geographic area for which the Survey is being conducted. E.g. wildlife management unit, name of mountain, river valley, watershed.</t>
         </r>
       </text>
     </comment>
@@ -757,12 +794,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Number of Spike/Fork Bulls (bulls wilth no more than 2 tines on 1 antler) observed durning survey.  Numeric.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Number of Spike/Fork Bulls (bulls wilth no more than 2 tines on 1 antler) observed durning survey.  Numeric.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -2000,7 +2056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -2995,51 +3051,9 @@
     <t>Lowland</t>
   </si>
   <si>
-    <t>Upland</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>16-00001</t>
   </si>
   <si>
@@ -3068,6 +3082,27 @@
   </si>
   <si>
     <t>End Time 3 (24hrs)</t>
+  </si>
+  <si>
+    <t>reti</t>
+  </si>
+  <si>
+    <t>retc</t>
+  </si>
+  <si>
+    <t>leti</t>
+  </si>
+  <si>
+    <t>letc</t>
+  </si>
+  <si>
+    <t>marked animals here</t>
+  </si>
+  <si>
+    <t>some_photo</t>
+  </si>
+  <si>
+    <t>some observation comment</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3118,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3150,6 +3185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4586,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9934F4F-97FC-4CFD-8FF0-86937AF9AE11}">
   <dimension ref="A1:AF599"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -4647,10 +4688,10 @@
         <v>43</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K1" s="69" t="s">
         <v>30</v>
@@ -13247,8 +13288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CACE0D7-C202-416C-A799-EE712DC4F630}">
   <dimension ref="A1:AS501"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13435,6 +13476,9 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="H2">
         <v>59.212853000000003</v>
       </c>
@@ -13445,731 +13489,367 @@
         <v>140</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L2" s="24">
         <v>42400</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="55">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="N2" s="21" t="s">
         <v>297</v>
       </c>
+      <c r="O2" s="21">
+        <v>1</v>
+      </c>
+      <c r="P2" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>3</v>
+      </c>
+      <c r="R2" s="21">
+        <v>4</v>
+      </c>
+      <c r="S2" s="21">
+        <v>5</v>
+      </c>
+      <c r="T2" s="21">
+        <v>6</v>
+      </c>
+      <c r="U2" s="21">
+        <v>7</v>
+      </c>
+      <c r="V2" s="21">
+        <v>8</v>
+      </c>
+      <c r="W2" s="21">
+        <v>9</v>
+      </c>
+      <c r="X2" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>13</v>
+      </c>
       <c r="AB2" s="31">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>18</v>
       </c>
       <c r="AG2" s="56">
         <f>SUM(O2:AF2)</f>
+        <v>171</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="21">
         <v>2</v>
       </c>
+      <c r="AJ2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK2" s="21">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="AM2" s="15">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>21</v>
+      </c>
       <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="15"/>
+      <c r="AP2" s="15">
+        <v>22</v>
+      </c>
       <c r="AQ2" s="15" t="s">
         <v>196</v>
       </c>
+      <c r="AR2" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>59.217151999999999</v>
-      </c>
-      <c r="I3">
-        <v>-123.53210199999999</v>
-      </c>
-      <c r="J3" s="63">
-        <v>350</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" s="24">
-        <v>42400</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="55"/>
-      <c r="N3" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC3" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="56">
-        <f t="shared" ref="AG3:AG17" si="0">SUM(O3:AF3)</f>
-        <v>1</v>
-      </c>
-      <c r="AM3" s="15">
-        <v>5</v>
-      </c>
+      <c r="AC3" s="31"/>
+      <c r="AG3" s="56"/>
+      <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
-      <c r="AO3" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
-      <c r="AQ3" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ3" s="15"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="15">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>59.214069000000002</v>
-      </c>
-      <c r="I4">
-        <v>-123.24438499999999</v>
-      </c>
-      <c r="J4" s="63">
-        <v>8.6</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="L4" s="24">
-        <v>42400</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="56">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM4" s="15">
-        <v>60</v>
-      </c>
+      <c r="AG4" s="56"/>
+      <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
-      <c r="AO4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="15">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>59.189627999999999</v>
-      </c>
-      <c r="I5">
-        <v>-123.285746</v>
-      </c>
-      <c r="J5" s="64">
-        <v>201.8</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="L5" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="55"/>
-      <c r="N5" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>5</v>
-      </c>
+      <c r="AG5" s="56"/>
+      <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
-      <c r="AO5" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO5" s="15"/>
       <c r="AP5" s="15"/>
-      <c r="AQ5" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ5" s="15"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>59.191439000000003</v>
-      </c>
-      <c r="I6">
-        <v>-123.29077700000001</v>
-      </c>
-      <c r="J6" s="64">
-        <v>404.7</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="L6" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="55"/>
-      <c r="N6" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM6" s="15">
-        <v>5</v>
-      </c>
+      <c r="AG6" s="56"/>
+      <c r="AM6" s="15"/>
       <c r="AN6" s="15"/>
-      <c r="AO6" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="AO6" s="15"/>
       <c r="AP6" s="15"/>
-      <c r="AQ6" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ6" s="15"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>59.196174999999997</v>
-      </c>
-      <c r="I7">
-        <v>-123.344191</v>
-      </c>
-      <c r="J7" s="64">
-        <v>946.6</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="L7" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM7" s="15">
-        <v>5</v>
-      </c>
+      <c r="AG7" s="56"/>
+      <c r="AM7" s="15"/>
       <c r="AN7" s="15"/>
-      <c r="AO7" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
-      <c r="AQ7" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ7" s="15"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>59.184519000000002</v>
-      </c>
-      <c r="I8">
-        <v>-123.340254</v>
-      </c>
-      <c r="J8" s="64">
-        <v>352.5</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="L8" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="56">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM8" s="15">
-        <v>20</v>
-      </c>
+      <c r="AG8" s="56"/>
+      <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
-      <c r="AO8" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
-      <c r="AQ8" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ8" s="15"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="15">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>59.185093999999999</v>
-      </c>
-      <c r="I9">
-        <v>-123.34666199999999</v>
-      </c>
-      <c r="J9" s="64">
-        <v>286.60000000000002</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="L9" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="55"/>
-      <c r="N9" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM9" s="15">
-        <v>10</v>
-      </c>
+      <c r="AG9" s="56"/>
+      <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
-      <c r="AO9" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
-      <c r="AQ9" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ9" s="15"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="15">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>59.197929999999999</v>
-      </c>
-      <c r="I10">
-        <v>-123.297085</v>
-      </c>
-      <c r="J10" s="64">
-        <v>1129</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="L10" s="24">
-        <v>42401</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="56">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM10" s="15">
-        <v>5</v>
-      </c>
+      <c r="AG10" s="56"/>
+      <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
-      <c r="AO10" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO10" s="15"/>
       <c r="AP10" s="15"/>
-      <c r="AQ10" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ10" s="15"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="15">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>59.216321999999998</v>
-      </c>
-      <c r="I11">
-        <v>-123.537111</v>
-      </c>
-      <c r="J11" s="64">
-        <v>262.8</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" s="24">
-        <v>42402</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>10</v>
-      </c>
+      <c r="AG11" s="56"/>
+      <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
-      <c r="AO11" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
-      <c r="AQ11" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ11" s="15"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="15">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>59.207906999999999</v>
-      </c>
-      <c r="I12">
-        <v>-124.08072900000001</v>
-      </c>
-      <c r="J12" s="64">
-        <v>297.7</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="L12" s="24">
-        <v>42402</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC12" s="21">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="56">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM12" s="15">
-        <v>20</v>
-      </c>
+      <c r="AG12" s="56"/>
+      <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
-      <c r="AO12" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO12" s="15"/>
       <c r="AP12" s="15"/>
-      <c r="AQ12" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="15">
-        <v>11</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="33"/>
-      <c r="L13" s="24">
-        <v>42402</v>
-      </c>
+      <c r="L13" s="24"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG13" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AG13" s="56"/>
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
-      <c r="AQ13" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ13" s="15"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="15">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>59.211359000000002</v>
-      </c>
-      <c r="I14">
-        <v>-124.169785</v>
-      </c>
-      <c r="J14" s="64">
-        <v>172.5</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="L14" s="24">
-        <v>42402</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="15">
-        <v>10</v>
-      </c>
+      <c r="AG14" s="56"/>
+      <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
-      <c r="AO14" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="AO14" s="15"/>
       <c r="AP14" s="15"/>
-      <c r="AQ14" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ14" s="15"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C15" s="15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>59.213982999999999</v>
-      </c>
-      <c r="I15">
-        <v>-124.100043</v>
-      </c>
-      <c r="J15" s="64">
-        <v>396.9</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="L15" s="24">
-        <v>42402</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="55"/>
-      <c r="N15" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="56">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>20</v>
-      </c>
+      <c r="AG15" s="56"/>
+      <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
-      <c r="AO15" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO15" s="15"/>
       <c r="AP15" s="15"/>
-      <c r="AQ15" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ15" s="15"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="15">
-        <v>13</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="33"/>
-      <c r="L16" s="24">
-        <v>42403</v>
-      </c>
+      <c r="L16" s="24"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG16" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AG16" s="56"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
       <c r="AP16" s="15"/>
-      <c r="AQ16" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ16" s="15"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="15">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>58.325799000000004</v>
-      </c>
-      <c r="I17">
-        <v>-123.40978200000001</v>
-      </c>
-      <c r="J17" s="64">
-        <v>55.7</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="L17" s="24">
-        <v>42403</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="55"/>
-      <c r="N17" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM17" s="15">
-        <v>20</v>
-      </c>
+      <c r="AG17" s="56"/>
+      <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
-      <c r="AO17" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AO17" s="15"/>
       <c r="AP17" s="15"/>
-      <c r="AQ17" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="AQ17" s="15"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
@@ -19067,7 +18747,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19132,7 +18812,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B2" s="24">
         <v>42400</v>
@@ -19141,24 +18821,35 @@
         <v>242</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
@@ -20407,7 +20098,7 @@
         <v>-123.396784</v>
       </c>
       <c r="K2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -20451,7 +20142,7 @@
         <v>-123.75320499999999</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -20489,7 +20180,7 @@
         <v>-123.620707</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -20549,7 +20240,7 @@
       </c>
       <c r="Z5" s="14"/>
       <c r="AB5" s="15" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
